--- a/data/trans_dic/P22$mutuaSPriv-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,87</t>
+          <t>0,71; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,54</t>
+          <t>0,53; 2,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,47</t>
+          <t>0,14; 1,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,69</t>
+          <t>0,61; 2,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,4</t>
+          <t>1,22; 3,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,53</t>
+          <t>0,13; 1,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,99</t>
+          <t>0,28; 1,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,82</t>
+          <t>0,65; 1,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,59</t>
+          <t>1,17; 2,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,6</t>
+          <t>0,46; 1,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,34</t>
+          <t>0,34; 1,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,87</t>
+          <t>0,73; 1,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,92</t>
+          <t>1,02; 2,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,24</t>
+          <t>1,87; 4,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,72</t>
+          <t>1,48; 3,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,61</t>
+          <t>0,94; 3,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,08</t>
+          <t>1,07; 2,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,56</t>
+          <t>1,42; 3,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,98</t>
+          <t>0,65; 1,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,09</t>
+          <t>1,46; 3,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,65</t>
+          <t>1,31; 2,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,36</t>
+          <t>1,84; 3,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,46</t>
+          <t>1,22; 2,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,18</t>
+          <t>1,42; 3,03</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,35</t>
+          <t>1,88; 5,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,45</t>
+          <t>1,55; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,12</t>
+          <t>0,55; 2,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,53</t>
+          <t>1,5; 4,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,27</t>
+          <t>1,5; 4,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,73</t>
+          <t>1,7; 4,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,63</t>
+          <t>0,73; 2,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,4</t>
+          <t>1,43; 4,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,21</t>
+          <t>2,17; 4,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,94</t>
+          <t>1,98; 4,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,97</t>
+          <t>0,79; 2,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,85</t>
+          <t>1,67; 3,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,36</t>
+          <t>1,34; 3,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,14</t>
+          <t>1,16; 3,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,95</t>
+          <t>2,46; 4,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,78</t>
+          <t>3,22; 5,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,64</t>
+          <t>1,12; 2,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,8</t>
+          <t>0,92; 2,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,14</t>
+          <t>1,87; 4,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,27</t>
+          <t>2,21; 4,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,64</t>
+          <t>1,43; 2,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,47</t>
+          <t>1,27; 2,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,08</t>
+          <t>2,52; 4,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,6</t>
+          <t>2,94; 4,62</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,71</t>
+          <t>1,66; 2,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,83</t>
+          <t>1,7; 2,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,61</t>
+          <t>1,63; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1305,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,67</t>
+          <t>1,63; 2,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,46</t>
+          <t>1,45; 2,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,16</t>
+          <t>1,3; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,95</t>
+          <t>1,86; 2,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,5</t>
+          <t>1,77; 2,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,43</t>
+          <t>1,69; 2,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,22</t>
+          <t>1,54; 2,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,02</t>
+          <t>2,14; 2,98</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Privado)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10207</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8671</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8356</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14410</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7509</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24617</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12488</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9283</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15865</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4879; 17761</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3695; 18817</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>959; 9271</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3868; 16420</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8415; 23164</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>935; 8799</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1907; 12690</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4401; 12464</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16195; 36763</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6485; 22959</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4537; 18552</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9593; 24910</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16739</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28554</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24757</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26304</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18590</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23011</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12512</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20428</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35328</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>51565</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>37269</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>46732</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9777; 27940</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19047; 43266</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15108; 37045</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11184; 41943</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10365; 28141</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14682; 35071</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6753; 20493</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13996; 30398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25237; 49918</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37674; 70147</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25180; 51021</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>30529; 65244</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22801</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20807</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8559</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18223</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18766</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22513</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11150</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26885</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41567</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43320</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19709</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45107</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12760; 34574</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11772; 32443</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4182; 15402</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10542; 34661</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10254; 28522</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13233; 35942</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5723; 19938</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13325; 41103</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29517; 56390</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30390; 61367</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12085; 31050</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27286; 62708</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20638</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18120</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33170</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40055</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18192</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17591</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30405</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33461</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38829</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>35711</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63575</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>73516</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12578; 29960</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11041; 28720</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23037; 45830</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>29881; 53420</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11619; 27992</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9643; 28246</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19540; 42910</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24173; 47281</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28342; 51760</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25369; 49227</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49939; 82674</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>59424; 93375</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>70385</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>76151</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>70242</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>92937</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>69958</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>66933</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>59593</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>88283</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>140343</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>143084</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>129835</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>181220</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>54170; 88277</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>58359; 95847</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>55232; 91957</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>71187; 117591</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>54954; 88275</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>51711; 87500</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46180; 77953</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>68222; 108676</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>117526; 165710</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>117704; 172459</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>106568; 155579</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>152145; 211974</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>